--- a/Testing-Framework/EPP-Framework-1a-Pre-Execution.xlsx
+++ b/Testing-Framework/EPP-Framework-1a-Pre-Execution.xlsx
@@ -44,30 +44,6 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Sample Set A</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> - Personal / Company Collection</t>
-    </r>
-  </si>
-  <si>
     <t>Solution 1</t>
   </si>
   <si>
@@ -169,12 +145,6 @@
       </rPr>
       <t xml:space="preserve"> - Malware Set X</t>
     </r>
-  </si>
-  <si>
-    <t>Original PE Files</t>
-  </si>
-  <si>
-    <t>Mutated PE Files</t>
   </si>
   <si>
     <t>Total Mutated</t>
@@ -504,6 +474,36 @@
       </rPr>
       <t xml:space="preserve"> -  Malware Set X</t>
     </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Sample Set A</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - Malware Set X</t>
+    </r>
+  </si>
+  <si>
+    <t>Malware Files</t>
+  </si>
+  <si>
+    <t>Mutated Malware Files</t>
   </si>
 </sst>
 </file>
@@ -1265,7 +1265,7 @@
   <dimension ref="B2:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1278,134 +1278,134 @@
   <sheetData>
     <row r="2" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B2" s="43" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D2" s="47" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="2:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B3" s="27" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D3" s="44" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4" s="28" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D4" s="45" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5" s="29" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D5" s="45" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D6" s="45" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B7" s="32" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D7" s="45" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B8" s="30" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D8" s="45" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B9" s="30" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D9" s="45" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B10" s="31" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D10" s="45" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D11" s="48" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B12" s="32" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D12" s="45"/>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B13" s="30" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D13" s="46" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B14" s="33" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B15" s="33" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D15" s="50" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B16" s="30"/>
       <c r="D16" s="45" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" s="30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D17" s="51"/>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18" s="55" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D18" s="46" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B19" s="52" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D19" s="53"/>
     </row>
     <row r="20" spans="2:4" ht="210" x14ac:dyDescent="0.25">
       <c r="D20" s="54" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -1419,10 +1419,10 @@
   <dimension ref="A1:N59"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="B39" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1446,65 +1446,65 @@
     </row>
     <row r="2" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C2" s="57" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D2" s="57"/>
       <c r="E2" s="18"/>
       <c r="F2" s="58" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G2" s="58"/>
       <c r="H2" s="18"/>
       <c r="I2" s="59" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J2" s="59"/>
       <c r="K2" s="18"/>
       <c r="L2" s="60" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="M2" s="60"/>
       <c r="N2" s="18"/>
     </row>
     <row r="3" spans="1:14" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="49" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B3" s="69" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="61" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="62" t="s">
         <v>16</v>
-      </c>
-      <c r="D3" s="62" t="s">
-        <v>17</v>
       </c>
       <c r="E3" s="19"/>
       <c r="F3" s="63" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="64" t="s">
         <v>16</v>
-      </c>
-      <c r="G3" s="64" t="s">
-        <v>17</v>
       </c>
       <c r="H3" s="19"/>
       <c r="I3" s="65" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" s="66" t="s">
         <v>16</v>
-      </c>
-      <c r="J3" s="66" t="s">
-        <v>17</v>
       </c>
       <c r="K3" s="19"/>
       <c r="L3" s="67" t="s">
+        <v>15</v>
+      </c>
+      <c r="M3" s="68" t="s">
         <v>16</v>
-      </c>
-      <c r="M3" s="68" t="s">
-        <v>17</v>
       </c>
       <c r="N3" s="19"/>
     </row>
     <row r="4" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="26" t="s">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="B4" s="14"/>
       <c r="C4" s="14"/>
@@ -1522,7 +1522,7 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B5" s="16"/>
       <c r="C5" s="16"/>
@@ -1540,7 +1540,7 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="3"/>
@@ -1558,7 +1558,7 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="3"/>
@@ -1618,7 +1618,7 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
@@ -1636,7 +1636,7 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="3"/>
@@ -1654,7 +1654,7 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="3"/>
@@ -1714,7 +1714,7 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B17" s="16"/>
       <c r="C17" s="16"/>
@@ -1732,7 +1732,7 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="3"/>
@@ -1750,7 +1750,7 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="3"/>
@@ -1813,7 +1813,7 @@
     </row>
     <row r="23" spans="1:14" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A23" s="34" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B23" s="35"/>
       <c r="C23" s="36"/>
@@ -1840,7 +1840,7 @@
     </row>
     <row r="25" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A25" s="26" t="s">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="B25" s="14"/>
       <c r="C25" s="14"/>
@@ -1858,7 +1858,7 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="15" t="s">
-        <v>5</v>
+        <v>58</v>
       </c>
       <c r="B26" s="16"/>
       <c r="C26" s="16"/>
@@ -1876,7 +1876,7 @@
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="3"/>
@@ -1894,7 +1894,7 @@
     </row>
     <row r="28" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="3"/>
@@ -1954,7 +1954,7 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B32" s="16"/>
       <c r="C32" s="16"/>
@@ -1972,7 +1972,7 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B33" s="1"/>
       <c r="C33" s="3"/>
@@ -1990,7 +1990,7 @@
     </row>
     <row r="34" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B34" s="1"/>
       <c r="C34" s="3"/>
@@ -2050,7 +2050,7 @@
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B38" s="16"/>
       <c r="C38" s="16"/>
@@ -2068,7 +2068,7 @@
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B39" s="1"/>
       <c r="C39" s="3"/>
@@ -2086,7 +2086,7 @@
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B40" s="1"/>
       <c r="C40" s="3"/>
@@ -2158,7 +2158,7 @@
     </row>
     <row r="44" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A44" s="34" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B44" s="35"/>
       <c r="C44" s="36"/>
@@ -2210,7 +2210,7 @@
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" s="41" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B47" s="41"/>
       <c r="C47" s="41"/>
@@ -2228,7 +2228,7 @@
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" s="41" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B48" s="41"/>
       <c r="C48" s="41"/>
@@ -2246,7 +2246,7 @@
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" s="41" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B49" s="41"/>
       <c r="C49" s="41"/>
@@ -2264,7 +2264,7 @@
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" s="41" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B50" s="41"/>
       <c r="C50" s="41"/>
@@ -2324,7 +2324,7 @@
     </row>
     <row r="54" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A54" s="42" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B54" s="40"/>
       <c r="C54" s="40"/>
@@ -2342,7 +2342,7 @@
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B55" s="1"/>
       <c r="C55" s="3"/>
@@ -2360,7 +2360,7 @@
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B56" s="1"/>
       <c r="C56" s="3"/>
@@ -2378,7 +2378,7 @@
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B57" s="1"/>
       <c r="C57" s="3"/>
@@ -2450,7 +2450,7 @@
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2474,65 +2474,65 @@
     </row>
     <row r="2" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C2" s="57" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D2" s="57"/>
       <c r="E2" s="18"/>
       <c r="F2" s="58" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G2" s="58"/>
       <c r="H2" s="18"/>
       <c r="I2" s="59" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J2" s="59"/>
       <c r="K2" s="18"/>
       <c r="L2" s="60" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="M2" s="60"/>
       <c r="N2" s="18"/>
     </row>
     <row r="3" spans="1:14" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="49" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B3" s="69" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="61" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="62" t="s">
         <v>16</v>
-      </c>
-      <c r="D3" s="62" t="s">
-        <v>17</v>
       </c>
       <c r="E3" s="19"/>
       <c r="F3" s="63" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="64" t="s">
         <v>16</v>
-      </c>
-      <c r="G3" s="64" t="s">
-        <v>17</v>
       </c>
       <c r="H3" s="19"/>
       <c r="I3" s="65" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" s="66" t="s">
         <v>16</v>
-      </c>
-      <c r="J3" s="66" t="s">
-        <v>17</v>
       </c>
       <c r="K3" s="19"/>
       <c r="L3" s="67" t="s">
+        <v>15</v>
+      </c>
+      <c r="M3" s="68" t="s">
         <v>16</v>
-      </c>
-      <c r="M3" s="68" t="s">
-        <v>17</v>
       </c>
       <c r="N3" s="19"/>
     </row>
     <row r="4" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="26" t="s">
-        <v>26</v>
+        <v>59</v>
       </c>
       <c r="B4" s="14"/>
       <c r="C4" s="14"/>
@@ -2550,7 +2550,7 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B5" s="16"/>
       <c r="C5" s="16"/>
@@ -2568,7 +2568,7 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="3"/>
@@ -2586,7 +2586,7 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="3"/>
@@ -2646,7 +2646,7 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
@@ -2664,7 +2664,7 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="3"/>
@@ -2682,7 +2682,7 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="3"/>
@@ -2742,7 +2742,7 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B17" s="16"/>
       <c r="C17" s="16"/>
@@ -2760,7 +2760,7 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="3"/>
@@ -2778,7 +2778,7 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="3"/>
@@ -2841,7 +2841,7 @@
     </row>
     <row r="23" spans="1:14" s="4" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A23" s="34" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B23" s="35"/>
       <c r="C23" s="36"/>
@@ -2868,7 +2868,7 @@
     </row>
     <row r="25" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A25" s="26" t="s">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="B25" s="14"/>
       <c r="C25" s="14"/>
@@ -2886,7 +2886,7 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="15" t="s">
-        <v>5</v>
+        <v>58</v>
       </c>
       <c r="B26" s="16"/>
       <c r="C26" s="16"/>
@@ -2904,7 +2904,7 @@
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="3"/>
@@ -2922,7 +2922,7 @@
     </row>
     <row r="28" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="3"/>
@@ -2982,7 +2982,7 @@
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B32" s="16"/>
       <c r="C32" s="16"/>
@@ -3000,7 +3000,7 @@
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B33" s="1"/>
       <c r="C33" s="3"/>
@@ -3018,7 +3018,7 @@
     </row>
     <row r="34" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B34" s="1"/>
       <c r="C34" s="3"/>
@@ -3078,7 +3078,7 @@
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B38" s="16"/>
       <c r="C38" s="16"/>
@@ -3096,7 +3096,7 @@
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B39" s="1"/>
       <c r="C39" s="3"/>
@@ -3114,7 +3114,7 @@
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B40" s="1"/>
       <c r="C40" s="3"/>
@@ -3186,7 +3186,7 @@
     </row>
     <row r="44" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A44" s="34" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B44" s="35"/>
       <c r="C44" s="36"/>
@@ -3238,7 +3238,7 @@
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" s="41" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B47" s="41"/>
       <c r="C47" s="41"/>
@@ -3256,7 +3256,7 @@
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" s="41" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B48" s="41"/>
       <c r="C48" s="41"/>
@@ -3274,7 +3274,7 @@
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" s="41" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B49" s="41"/>
       <c r="C49" s="41"/>
@@ -3292,7 +3292,7 @@
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" s="41" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B50" s="41"/>
       <c r="C50" s="41"/>
@@ -3352,7 +3352,7 @@
     </row>
     <row r="54" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A54" s="42" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B54" s="40"/>
       <c r="C54" s="40"/>
@@ -3370,7 +3370,7 @@
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B55" s="1"/>
       <c r="C55" s="3"/>
@@ -3388,7 +3388,7 @@
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B56" s="1"/>
       <c r="C56" s="3"/>
@@ -3406,7 +3406,7 @@
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B57" s="1"/>
       <c r="C57" s="3"/>

--- a/Testing-Framework/EPP-Framework-1a-Pre-Execution.xlsx
+++ b/Testing-Framework/EPP-Framework-1a-Pre-Execution.xlsx
@@ -382,9 +382,6 @@
   </si>
   <si>
     <t>Of these samples, ensure you use a variety of file-types</t>
-  </si>
-  <si>
-    <t>via a USB, download, attachment etc, it simply got in!!! Then there is no need to spilt out</t>
   </si>
   <si>
     <t>** Additionally if sandboxing is being used, you may want to disconnect yourself from the internet</t>
@@ -446,9 +443,6 @@
     </r>
   </si>
   <si>
-    <t>the on-write function, just test a bunch of file types and extensions</t>
-  </si>
-  <si>
     <t xml:space="preserve">** Note: In the case where you may not care how the a new file is introduced into the system, </t>
   </si>
   <si>
@@ -504,6 +498,25 @@
   </si>
   <si>
     <t>Mutated Malware Files</t>
+  </si>
+  <si>
+    <t>it simply got in!!! Then there is no need to spilt out the on-write function test scenarios</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">simply test a bunch of file types and extensions - otherwise use  </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>EPP-Framework-1b-Pre-Exec</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1297,7 +1310,7 @@
         <v>17</v>
       </c>
       <c r="D4" s="45" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
@@ -1305,7 +1318,7 @@
         <v>31</v>
       </c>
       <c r="D5" s="45" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
@@ -1358,7 +1371,7 @@
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B13" s="30" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D13" s="46" t="s">
         <v>35</v>
@@ -1366,19 +1379,19 @@
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B14" s="33" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B15" s="33" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="D15" s="50" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B16" s="30"/>
+      <c r="B16" s="33"/>
       <c r="D16" s="45" t="s">
         <v>41</v>
       </c>
@@ -1391,7 +1404,7 @@
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18" s="55" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D18" s="46" t="s">
         <v>40</v>
@@ -1399,13 +1412,13 @@
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B19" s="52" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D19" s="53"/>
     </row>
     <row r="20" spans="2:4" ht="210" x14ac:dyDescent="0.25">
       <c r="D20" s="54" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -1504,7 +1517,7 @@
     </row>
     <row r="4" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="26" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B4" s="14"/>
       <c r="C4" s="14"/>
@@ -1522,7 +1535,7 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B5" s="16"/>
       <c r="C5" s="16"/>
@@ -1840,7 +1853,7 @@
     </row>
     <row r="25" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A25" s="26" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B25" s="14"/>
       <c r="C25" s="14"/>
@@ -1858,7 +1871,7 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B26" s="16"/>
       <c r="C26" s="16"/>
@@ -2532,7 +2545,7 @@
     </row>
     <row r="4" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="26" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B4" s="14"/>
       <c r="C4" s="14"/>
@@ -2550,7 +2563,7 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B5" s="16"/>
       <c r="C5" s="16"/>
@@ -2868,7 +2881,7 @@
     </row>
     <row r="25" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A25" s="26" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B25" s="14"/>
       <c r="C25" s="14"/>
@@ -2886,7 +2899,7 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B26" s="16"/>
       <c r="C26" s="16"/>

--- a/Testing-Framework/EPP-Framework-1a-Pre-Execution.xlsx
+++ b/Testing-Framework/EPP-Framework-1a-Pre-Execution.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="62">
   <si>
     <t>Total</t>
   </si>
@@ -324,33 +324,6 @@
     </r>
   </si>
   <si>
-    <t>** Additionally, if you have time, re-test the same scenarios 1 week later, followed by another week</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Important</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> to see which methods will detect and quarantine the same malware</t>
-    </r>
-  </si>
-  <si>
     <t>Pre-Execution Testing is the Discovery of Malware Pre-detonation.</t>
   </si>
   <si>
@@ -396,9 +369,71 @@
     <t>new files</t>
   </si>
   <si>
+    <t xml:space="preserve">** Note: In the case where you may not care how the a new file is introduced into the system, </t>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Sample Set A</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> -  Malware Set X</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Sample Set A</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - Malware Set X</t>
+    </r>
+  </si>
+  <si>
+    <t>Malware Files</t>
+  </si>
+  <si>
+    <t>Mutated Malware Files</t>
+  </si>
+  <si>
+    <t>it simply got in!!! Then there is no need to spilt out the on-write function test scenarios</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">simply test a bunch of file types and extensions - otherwise use  </t>
+    </r>
+    <r>
+      <rPr>
         <u/>
         <sz val="11"/>
         <color theme="1"/>
@@ -406,17 +441,18 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Finally SCRIPTS</t>
+      <t>EPP-Framework-1b-Pre-Exec</t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Finally SCRIPTS - you will notice that many of the NG-EPP have ZERO pre-exec-script detection, </t>
+  </si>
+  <si>
+    <t>mainly just static PEs only. Of the ones I tested, this was pretty universal especially as many scripts</t>
+  </si>
+  <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> - you will notice that many of the NG-EPP have ZERO pre-exec-script detection, mainly just static PEs only. Of the ones I tested, this was pretty universal especially as many scripts are compiled at run-time, it can be hard to analyse the behaviour of code until it executes.  This wasn't a show stopper for me.
+      <t xml:space="preserve">wasn't a show stopper for me.
 You will noticed however that many of the traditional products will perform well in this scenario/ Why? Sandboxing! This is the reason they perform better, but its kind of cheating as they run / detonate at the same time, where the NG products do not. It may not be a problem in your business requirements, but its important to understand the different methodologies in script detection. </t>
     </r>
     <r>
@@ -443,80 +479,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">** Note: In the case where you may not care how the a new file is introduced into the system, </t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Sample Set A</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> -  Malware Set X</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Sample Set A</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> - Malware Set X</t>
-    </r>
-  </si>
-  <si>
-    <t>Malware Files</t>
-  </si>
-  <si>
-    <t>Mutated Malware Files</t>
-  </si>
-  <si>
-    <t>it simply got in!!! Then there is no need to spilt out the on-write function test scenarios</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">simply test a bunch of file types and extensions - otherwise use  </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>EPP-Framework-1b-Pre-Exec</t>
-    </r>
+    <t xml:space="preserve"> are compiled at run-time, it can be hard to analyse the behaviour of code until it executes.  This </t>
   </si>
 </sst>
 </file>
@@ -924,25 +887,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -986,6 +939,16 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="180" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1277,8 +1240,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1291,9 +1254,9 @@
   <sheetData>
     <row r="2" spans="2:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B2" s="43" t="s">
-        <v>42</v>
-      </c>
-      <c r="D2" s="47" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="67" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1302,7 +1265,7 @@
         <v>30</v>
       </c>
       <c r="D3" s="44" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
@@ -1310,7 +1273,7 @@
         <v>17</v>
       </c>
       <c r="D4" s="45" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
@@ -1318,12 +1281,12 @@
         <v>31</v>
       </c>
       <c r="D5" s="45" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="D6" s="45" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.25">
@@ -1347,7 +1310,7 @@
         <v>19</v>
       </c>
       <c r="D9" s="45" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.25">
@@ -1355,12 +1318,12 @@
         <v>18</v>
       </c>
       <c r="D10" s="45" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="D11" s="48" t="s">
-        <v>44</v>
+      <c r="D11" s="47" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.25">
@@ -1371,54 +1334,57 @@
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B13" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="D13" s="46" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" s="45" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B14" s="33" t="s">
-        <v>59</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="D14" s="45"/>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B15" s="33" t="s">
-        <v>60</v>
-      </c>
-      <c r="D15" s="50" t="s">
-        <v>45</v>
+        <v>57</v>
+      </c>
+      <c r="D15" s="46" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B16" s="33"/>
-      <c r="D16" s="45" t="s">
-        <v>41</v>
-      </c>
+      <c r="D16" s="66"/>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="D17" s="51"/>
+      <c r="D17" s="68" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B18" s="55" t="s">
-        <v>51</v>
-      </c>
-      <c r="D18" s="46" t="s">
-        <v>40</v>
+      <c r="B18" s="51" t="s">
+        <v>49</v>
+      </c>
+      <c r="D18" s="45" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B19" s="52" t="s">
-        <v>52</v>
-      </c>
-      <c r="D19" s="53"/>
-    </row>
-    <row r="20" spans="2:4" ht="210" x14ac:dyDescent="0.25">
-      <c r="D20" s="54" t="s">
-        <v>53</v>
+      <c r="B19" s="50" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19" s="49" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" ht="165" x14ac:dyDescent="0.25">
+      <c r="D20" s="69" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -1458,66 +1424,66 @@
       <c r="A1"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C2" s="57" t="s">
+      <c r="C2" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="57"/>
+      <c r="D2" s="53"/>
       <c r="E2" s="18"/>
-      <c r="F2" s="58" t="s">
+      <c r="F2" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="58"/>
+      <c r="G2" s="54"/>
       <c r="H2" s="18"/>
-      <c r="I2" s="59" t="s">
+      <c r="I2" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="59"/>
+      <c r="J2" s="55"/>
       <c r="K2" s="18"/>
-      <c r="L2" s="60" t="s">
+      <c r="L2" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="M2" s="60"/>
+      <c r="M2" s="56"/>
       <c r="N2" s="18"/>
     </row>
     <row r="3" spans="1:14" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="49" t="s">
+      <c r="A3" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="69" t="s">
+      <c r="B3" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="61" t="s">
+      <c r="C3" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="62" t="s">
+      <c r="D3" s="58" t="s">
         <v>16</v>
       </c>
       <c r="E3" s="19"/>
-      <c r="F3" s="63" t="s">
+      <c r="F3" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="64" t="s">
+      <c r="G3" s="60" t="s">
         <v>16</v>
       </c>
       <c r="H3" s="19"/>
-      <c r="I3" s="65" t="s">
+      <c r="I3" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="66" t="s">
+      <c r="J3" s="62" t="s">
         <v>16</v>
       </c>
       <c r="K3" s="19"/>
-      <c r="L3" s="67" t="s">
+      <c r="L3" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="M3" s="68" t="s">
+      <c r="M3" s="64" t="s">
         <v>16</v>
       </c>
       <c r="N3" s="19"/>
     </row>
     <row r="4" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="26" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B4" s="14"/>
       <c r="C4" s="14"/>
@@ -1535,7 +1501,7 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B5" s="16"/>
       <c r="C5" s="16"/>
@@ -1853,7 +1819,7 @@
     </row>
     <row r="25" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A25" s="26" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B25" s="14"/>
       <c r="C25" s="14"/>
@@ -1871,7 +1837,7 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="15" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B26" s="16"/>
       <c r="C26" s="16"/>
@@ -2432,16 +2398,16 @@
       <c r="B59" s="8"/>
       <c r="C59" s="24"/>
       <c r="D59" s="24"/>
-      <c r="E59" s="56"/>
+      <c r="E59" s="52"/>
       <c r="F59" s="25"/>
       <c r="G59" s="24"/>
-      <c r="H59" s="56"/>
+      <c r="H59" s="52"/>
       <c r="I59" s="25"/>
       <c r="J59" s="24"/>
-      <c r="K59" s="56"/>
+      <c r="K59" s="52"/>
       <c r="L59" s="25"/>
       <c r="M59" s="24"/>
-      <c r="N59" s="56"/>
+      <c r="N59" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2486,66 +2452,66 @@
       <c r="A1"/>
     </row>
     <row r="2" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C2" s="57" t="s">
+      <c r="C2" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="57"/>
+      <c r="D2" s="53"/>
       <c r="E2" s="18"/>
-      <c r="F2" s="58" t="s">
+      <c r="F2" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="58"/>
+      <c r="G2" s="54"/>
       <c r="H2" s="18"/>
-      <c r="I2" s="59" t="s">
+      <c r="I2" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="59"/>
+      <c r="J2" s="55"/>
       <c r="K2" s="18"/>
-      <c r="L2" s="60" t="s">
+      <c r="L2" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="M2" s="60"/>
+      <c r="M2" s="56"/>
       <c r="N2" s="18"/>
     </row>
     <row r="3" spans="1:14" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="49" t="s">
+      <c r="A3" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="69" t="s">
+      <c r="B3" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="61" t="s">
+      <c r="C3" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="62" t="s">
+      <c r="D3" s="58" t="s">
         <v>16</v>
       </c>
       <c r="E3" s="19"/>
-      <c r="F3" s="63" t="s">
+      <c r="F3" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="64" t="s">
+      <c r="G3" s="60" t="s">
         <v>16</v>
       </c>
       <c r="H3" s="19"/>
-      <c r="I3" s="65" t="s">
+      <c r="I3" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="66" t="s">
+      <c r="J3" s="62" t="s">
         <v>16</v>
       </c>
       <c r="K3" s="19"/>
-      <c r="L3" s="67" t="s">
+      <c r="L3" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="M3" s="68" t="s">
+      <c r="M3" s="64" t="s">
         <v>16</v>
       </c>
       <c r="N3" s="19"/>
     </row>
     <row r="4" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="26" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B4" s="14"/>
       <c r="C4" s="14"/>
@@ -2563,7 +2529,7 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B5" s="16"/>
       <c r="C5" s="16"/>
@@ -2881,7 +2847,7 @@
     </row>
     <row r="25" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A25" s="26" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B25" s="14"/>
       <c r="C25" s="14"/>
@@ -2899,7 +2865,7 @@
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="15" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B26" s="16"/>
       <c r="C26" s="16"/>
@@ -3460,16 +3426,16 @@
       <c r="B59" s="8"/>
       <c r="C59" s="24"/>
       <c r="D59" s="24"/>
-      <c r="E59" s="56"/>
+      <c r="E59" s="52"/>
       <c r="F59" s="25"/>
       <c r="G59" s="24"/>
-      <c r="H59" s="56"/>
+      <c r="H59" s="52"/>
       <c r="I59" s="25"/>
       <c r="J59" s="24"/>
-      <c r="K59" s="56"/>
+      <c r="K59" s="52"/>
       <c r="L59" s="25"/>
       <c r="M59" s="24"/>
-      <c r="N59" s="56"/>
+      <c r="N59" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="4">
